--- a/Время Намаза 25.xlsx
+++ b/Время Намаза 25.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t xml:space="preserve">Январь</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Шабан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Февраль</t>
   </si>
 </sst>
 </file>
@@ -192,16 +195,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,7 +220,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,14 +238,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -432,1081 +423,1899 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.297916666666667</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.386805555555556</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>1.63402777777778</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>10.7159722222222</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="5" t="n">
         <v>-97.2173611111112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="8" t="n">
         <v>1.29791666666667</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="8" t="n">
         <v>1.38680555555556</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="8" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="8" t="n">
         <v>2.63472222222222</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="9" t="n">
         <v>11.7166666666667</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="9" t="n">
         <v>-108.216666666667</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="4" t="n">
         <v>2.29791666666667</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.386111111111111</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <v>3.63541666666667</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>12.7173611111111</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="5" t="n">
         <v>-119.215972222222</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="8" t="n">
         <v>3.29791666666667</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="8" t="n">
         <v>1.38611111111111</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="8" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="8" t="n">
         <v>5.63680555555556</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="9" t="n">
         <v>13.7180555555556</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="9" t="n">
         <v>-130.215277777778</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="4" t="n">
         <v>4.29791666666667</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>2.38611111111111</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <v>2.5625</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="4" t="n">
         <v>6.6375</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="5" t="n">
         <v>14.71875</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="5" t="n">
         <v>-141.214583333333</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="8" t="n">
         <v>5.29791666666667</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="8" t="n">
         <v>0.385416666666667</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="8" t="n">
         <v>3.5625</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="8" t="n">
         <v>7.63819444444444</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="9" t="n">
         <v>16.7201388888889</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="9" t="n">
         <v>-163.213194444444</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="4" t="n">
         <v>0.297222222222222</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="4" t="n">
         <v>1.38541666666667</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <v>4.5625</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="4" t="n">
         <v>8.63888888888889</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="5" t="n">
         <v>17.7208333333333</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="5" t="n">
         <v>-174.2125</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="8" t="n">
         <v>1.29722222222222</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="8" t="n">
         <v>0.384722222222222</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="8" t="n">
         <v>5.5625</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="8" t="n">
         <v>10.6402777777778</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="9" t="n">
         <v>18.7215277777778</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="9" t="n">
         <v>-185.211805555556</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="4" t="n">
         <v>2.29722222222222</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="4" t="n">
         <v>1.38472222222222</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="4" t="n">
         <v>6.5625</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="4" t="n">
         <v>11.6409722222222</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="5" t="n">
         <v>20.7229166666667</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="5" t="n">
         <v>-196.211111111111</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="8" t="n">
         <v>3.29722222222222</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="8" t="n">
         <v>0.384027777777778</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="8" t="n">
         <v>7.5625</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="8" t="n">
         <v>12.6416666666667</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="9" t="n">
         <v>21.7236111111111</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="9" t="n">
         <v>-207.210416666667</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="4" t="n">
         <v>0.296527777777778</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.383333333333333</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="4" t="n">
         <v>8.5625</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="4" t="n">
         <v>14.6430555555556</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="5" t="n">
         <v>23.725</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="5" t="n">
         <v>-218.209722222222</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="8" t="n">
         <v>1.29652777777778</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="8" t="n">
         <v>1.38333333333333</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="8" t="n">
         <v>9.5625</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="8" t="n">
         <v>15.64375</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="9" t="n">
         <v>24.7256944444444</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="9" t="n">
         <v>-240.208333333333</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.295833333333333</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.382638888888889</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="4" t="n">
         <v>10.5625</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="4" t="n">
         <v>17.6451388888889</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="5" t="n">
         <v>26.7270833333333</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="5" t="n">
         <v>-251.207638888889</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="8" t="n">
         <v>1.29583333333333</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="8" t="n">
         <v>0.381944444444445</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="8" t="n">
         <v>11.5625</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="8" t="n">
         <v>18.6458333333333</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="9" t="n">
         <v>27.7277777777778</v>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="9" t="n">
         <v>-262.206944444445</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="4" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.38125</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="4" t="n">
         <v>12.5625</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="4" t="n">
         <v>20.6472222222222</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="5" t="n">
         <v>29.7291666666667</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="5" t="n">
         <v>-284.205555555556</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="8" t="n">
         <v>0.294444444444444</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="8" t="n">
         <v>0.380555555555556</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="8" t="n">
         <v>13.5625</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="8" t="n">
         <v>21.6479166666667</v>
       </c>
-      <c r="H18" s="10" t="n">
+      <c r="H18" s="9" t="n">
         <v>31.7305555555556</v>
       </c>
-      <c r="I18" s="10" t="n">
+      <c r="I18" s="9" t="n">
         <v>-295.204861111111</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="4" t="n">
         <v>1.29444444444444</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="4" t="n">
         <v>0.379861111111111</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="4" t="n">
         <v>14.5625</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="4" t="n">
         <v>23.6493055555556</v>
       </c>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="5" t="n">
         <v>32.73125</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="5" t="n">
         <v>-306.204166666667</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="8" t="n">
         <v>0.29375</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="8" t="n">
         <v>0.379166666666667</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="8" t="n">
         <v>15.5625</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="8" t="n">
         <v>24.65</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="9" t="n">
         <v>34.7326388888889</v>
       </c>
-      <c r="I20" s="10" t="n">
+      <c r="I20" s="9" t="n">
         <v>-328.202777777778</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="4" t="n">
         <v>0.293055555555556</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="4" t="n">
         <v>0.378472222222222</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="4" t="n">
         <v>16.5625</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="4" t="n">
         <v>26.6513888888889</v>
       </c>
-      <c r="H21" s="6" t="n">
+      <c r="H21" s="5" t="n">
         <v>36.7340277777778</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="5" t="n">
         <v>-339.202083333333</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="8" t="n">
         <v>0.292361111111111</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="8" t="n">
         <v>0.377777777777778</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="8" t="n">
         <v>17.5625</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="8" t="n">
         <v>28.6527777777778</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H22" s="9" t="n">
         <v>37.7347222222222</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="9" t="n">
         <v>-361.200694444445</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="4" t="n">
         <v>1.29236111111111</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="4" t="n">
         <v>0.377083333333333</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="4" t="n">
         <v>18.5625</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="4" t="n">
         <v>29.6534722222222</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="5" t="n">
         <v>39.7361111111111</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="5" t="n">
         <v>-372.2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="8" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="8" t="n">
         <v>0.376388888888889</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="8" t="n">
         <v>19.5625</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="8" t="n">
         <v>31.6548611111111</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="9" t="n">
         <v>41.7375</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="9" t="n">
         <v>-394.198611111111</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="4" t="n">
         <v>0.290972222222222</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="4" t="n">
         <v>0.375</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="4" t="n">
         <v>20.5625</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="4" t="n">
         <v>33.65625</v>
       </c>
-      <c r="H25" s="6" t="n">
+      <c r="H25" s="5" t="n">
         <v>43.7388888888889</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="5" t="n">
         <v>-405.197916666667</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="8" t="n">
         <v>0.290277777777778</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="8" t="n">
         <v>0.374305555555556</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="8" t="n">
         <v>21.5625</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="8" t="n">
         <v>34.6569444444444</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H26" s="9" t="n">
         <v>45.7402777777778</v>
       </c>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="9" t="n">
         <v>-427.196527777778</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="4" t="n">
         <v>0.289583333333333</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="4" t="n">
         <v>0.373611111111111</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="4" t="n">
         <v>22.5625</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="4" t="n">
         <v>36.6583333333333</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H27" s="5" t="n">
         <v>46.7409722222222</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="5" t="n">
         <v>-438.195833333333</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="8" t="n">
         <v>0.288888888888889</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="8" t="n">
         <v>0.372222222222222</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="8" t="n">
         <v>23.5625</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="8" t="n">
         <v>38.6597222222222</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="9" t="n">
         <v>48.7423611111111</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="9" t="n">
         <v>-460.194444444444</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="4" t="n">
         <v>0.288194444444444</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="4" t="n">
         <v>0.371527777777778</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="4" t="n">
         <v>24.5625</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="4" t="n">
         <v>40.6611111111111</v>
       </c>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="5" t="n">
         <v>50.74375</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="5" t="n">
         <v>-471.19375</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="8" t="n">
         <v>0.2875</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="8" t="n">
         <v>0.370138888888889</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="8" t="n">
         <v>25.5625</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="8" t="n">
         <v>41.6618055555556</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="9" t="n">
         <v>52.7451388888889</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I30" s="9" t="n">
         <v>-493.192361111111</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="4" t="n">
         <v>0.286805555555556</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="4" t="n">
         <v>0.369444444444444</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="4" t="n">
         <v>26.5625</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="4" t="n">
         <v>43.6631944444444</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="5" t="n">
         <v>54.7465277777778</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="5" t="n">
         <v>-504.191666666667</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+    <row r="32" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="8" t="n">
         <v>0.286111111111111</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="8" t="n">
         <v>0.36875</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="8" t="n">
         <v>27.5625</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="8" t="n">
         <v>45.6645833333333</v>
       </c>
-      <c r="H32" s="10" t="n">
+      <c r="H32" s="9" t="n">
         <v>56.7479166666667</v>
       </c>
-      <c r="I32" s="10" t="n">
+      <c r="I32" s="9" t="n">
         <v>-526.190277777778</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+    <row r="33" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="8" t="n">
         <v>0.285416666666667</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E34" s="8" t="n">
         <v>0.368055555555556</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="8" t="n">
         <v>28.5625</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G34" s="8" t="n">
         <v>47.6659722222222</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H34" s="9" t="n">
         <v>58.7493055555556</v>
       </c>
-      <c r="I34" s="10" t="n">
+      <c r="I34" s="9" t="n">
         <v>-548.188888888889</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="12"/>
-      <c r="E36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="12"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="12"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="12"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="12"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="12"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="12"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="12"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="12"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="0"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-    </row>
+    <row r="36" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>0.297916666666667</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0.386805555555556</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>1.63402777777778</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>10.7159722222222</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>-97.2173611111112</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" s="8" t="n">
+        <v>1.29791666666667</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.38680555555556</v>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>2.63472222222222</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>11.7166666666667</v>
+      </c>
+      <c r="I39" s="9" t="n">
+        <v>-108.216666666667</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>2.29791666666667</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0.386111111111111</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>3.63541666666667</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>12.7173611111111</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>-119.215972222222</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>3.29791666666667</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1.38611111111111</v>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>5.63680555555556</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>13.7180555555556</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>-130.215277777778</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>4.29791666666667</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>2.38611111111111</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>6.6375</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>14.71875</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>-141.214583333333</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v>5.29791666666667</v>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>7.63819444444444</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <v>16.7201388888889</v>
+      </c>
+      <c r="I43" s="9" t="n">
+        <v>-163.213194444444</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>0.297222222222222</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>1.38541666666667</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>8.63888888888889</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>17.7208333333333</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>-174.2125</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v>1.29722222222222</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>0.384722222222222</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>5.5625</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>10.6402777777778</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>18.7215277777778</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>-185.211805555556</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>2.29722222222222</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>1.38472222222222</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>6.5625</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>11.6409722222222</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>20.7229166666667</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>-196.211111111111</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>3.29722222222222</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.384027777777778</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>7.5625</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>12.6416666666667</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>21.7236111111111</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <v>-207.210416666667</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>0.296527777777778</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>0.383333333333333</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>8.5625</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>14.6430555555556</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>23.725</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>-218.209722222222</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D49" s="8" t="n">
+        <v>1.29652777777778</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.38333333333333</v>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>9.5625</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>15.64375</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>24.7256944444444</v>
+      </c>
+      <c r="I49" s="9" t="n">
+        <v>-240.208333333333</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>0.295833333333333</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>0.382638888888889</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>10.5625</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>17.6451388888889</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>26.7270833333333</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>-251.207638888889</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" s="8" t="n">
+        <v>1.29583333333333</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.381944444444445</v>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v>11.5625</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>18.6458333333333</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>27.7277777777778</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <v>-262.206944444445</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>0.295138888888889</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>0.38125</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>12.5625</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>20.6472222222222</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>29.7291666666667</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>-284.205555555556</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D53" s="8" t="n">
+        <v>0.294444444444444</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.380555555555556</v>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>13.5625</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>21.6479166666667</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>31.7305555555556</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <v>-295.204861111111</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>1.29444444444444</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>0.379861111111111</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>14.5625</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>23.6493055555556</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>32.73125</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>-306.204166666667</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>0.29375</v>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>0.379166666666667</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>15.5625</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="H55" s="9" t="n">
+        <v>34.7326388888889</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>-328.202777777778</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>0.293055555555556</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>0.378472222222222</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>16.5625</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>26.6513888888889</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>36.7340277777778</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>-339.202083333333</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>0.292361111111111</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>0.377777777777778</v>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>17.5625</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>28.6527777777778</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>37.7347222222222</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>-361.200694444445</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>1.29236111111111</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>0.377083333333333</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>18.5625</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>29.6534722222222</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>39.7361111111111</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>-372.2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D59" s="8" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.376388888888889</v>
+      </c>
+      <c r="F59" s="8" t="n">
+        <v>19.5625</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>31.6548611111111</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>41.7375</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <v>-394.198611111111</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>0.290972222222222</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>20.5625</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>33.65625</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>43.7388888888889</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>-405.197916666667</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>0.290277777777778</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.374305555555556</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>21.5625</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>34.6569444444444</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>45.7402777777778</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <v>-427.196527777778</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>0.289583333333333</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>0.373611111111111</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>22.5625</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>36.6583333333333</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>46.7409722222222</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>-438.195833333333</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D63" s="8" t="n">
+        <v>0.288888888888889</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0.372222222222222</v>
+      </c>
+      <c r="F63" s="8" t="n">
+        <v>23.5625</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>38.6597222222222</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>48.7423611111111</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>-460.194444444444</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>0.288194444444444</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="F64" s="4" t="n">
+        <v>24.5625</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>40.6611111111111</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>50.74375</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>-471.19375</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D65" s="8" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0.370138888888889</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <v>25.5625</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>41.6618055555556</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>52.7451388888889</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>-493.192361111111</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>0.286805555555556</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>0.369444444444444</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>26.5625</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>43.6631944444444</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>54.7465277777778</v>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>-504.191666666667</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>0.286111111111111</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.36875</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>27.5625</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>45.6645833333333</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>56.7479166666667</v>
+      </c>
+      <c r="I67" s="9" t="n">
+        <v>-526.190277777778</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="E33:I33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Время Намаза 25.xlsx
+++ b/Время Намаза 25.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t xml:space="preserve">Январь</t>
   </si>
@@ -140,7 +140,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,7 +150,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,6 +246,38 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,7 +290,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEFEFEF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -425,8 +463,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="A36:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1395,917 +1433,1011 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>0.297916666666667</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>0.386805555555556</v>
-      </c>
-      <c r="F38" s="4" t="n">
+      <c r="D38" s="13" t="n">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="E38" s="13" t="n">
+        <v>0.365972222222222</v>
+      </c>
+      <c r="F38" s="13" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G38" s="4" t="n">
-        <v>1.63402777777778</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>10.7159722222222</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>-97.2173611111112</v>
+      <c r="G38" s="13" t="n">
+        <v>0.667361111111111</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>0.811805555555556</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="8" t="n">
-        <v>1.29791666666667</v>
-      </c>
-      <c r="E39" s="8" t="n">
-        <v>1.38680555555556</v>
-      </c>
-      <c r="F39" s="8" t="n">
+      <c r="D39" s="17" t="n">
+        <v>0.282638888888889</v>
+      </c>
+      <c r="E39" s="17" t="n">
+        <v>0.365277777777778</v>
+      </c>
+      <c r="F39" s="17" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G39" s="8" t="n">
-        <v>2.63472222222222</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>11.7166666666667</v>
-      </c>
-      <c r="I39" s="9" t="n">
-        <v>-108.216666666667</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="G39" s="17" t="n">
+        <v>1.66805555555556</v>
+      </c>
+      <c r="H39" s="18" t="n">
+        <v>0.751388888888889</v>
+      </c>
+      <c r="I39" s="18" t="n">
+        <v>0.813194444444444</v>
+      </c>
+    </row>
+    <row r="40" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>2.29791666666667</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>0.386111111111111</v>
-      </c>
-      <c r="F40" s="4" t="n">
+      <c r="D40" s="13" t="n">
+        <v>0.281944444444444</v>
+      </c>
+      <c r="E40" s="13" t="n">
+        <v>0.363888888888889</v>
+      </c>
+      <c r="F40" s="13" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G40" s="4" t="n">
-        <v>3.63541666666667</v>
-      </c>
-      <c r="H40" s="5" t="n">
-        <v>12.7173611111111</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>-119.215972222222</v>
+      <c r="G40" s="13" t="n">
+        <v>3.66944444444444</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0.752777777777778</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>0.813888888888889</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="D41" s="8" t="n">
-        <v>3.29791666666667</v>
-      </c>
-      <c r="E41" s="8" t="n">
-        <v>1.38611111111111</v>
-      </c>
-      <c r="F41" s="8" t="n">
+      <c r="D41" s="17" t="n">
+        <v>0.280555555555556</v>
+      </c>
+      <c r="E41" s="17" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="F41" s="17" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G41" s="8" t="n">
-        <v>5.63680555555556</v>
-      </c>
-      <c r="H41" s="9" t="n">
-        <v>13.7180555555556</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>-130.215277777778</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="G41" s="17" t="n">
+        <v>5.67083333333333</v>
+      </c>
+      <c r="H41" s="18" t="n">
+        <v>0.754166666666667</v>
+      </c>
+      <c r="I41" s="18" t="n">
+        <v>0.815277777777778</v>
+      </c>
+    </row>
+    <row r="42" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>4.29791666666667</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>2.38611111111111</v>
-      </c>
-      <c r="F42" s="4" t="n">
+      <c r="D42" s="13" t="n">
+        <v>0.279861111111111</v>
+      </c>
+      <c r="E42" s="13" t="n">
+        <v>0.361111111111111</v>
+      </c>
+      <c r="F42" s="13" t="n">
         <v>2.5625</v>
       </c>
-      <c r="G42" s="4" t="n">
-        <v>6.6375</v>
-      </c>
-      <c r="H42" s="5" t="n">
-        <v>14.71875</v>
-      </c>
-      <c r="I42" s="5" t="n">
-        <v>-141.214583333333</v>
+      <c r="G42" s="13" t="n">
+        <v>7.67222222222222</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>0.755555555555556</v>
+      </c>
+      <c r="I42" s="14" t="n">
+        <v>0.816666666666667</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="D43" s="8" t="n">
-        <v>5.29791666666667</v>
-      </c>
-      <c r="E43" s="8" t="n">
-        <v>0.385416666666667</v>
-      </c>
-      <c r="F43" s="8" t="n">
+      <c r="D43" s="17" t="n">
+        <v>0.278472222222222</v>
+      </c>
+      <c r="E43" s="17" t="n">
+        <v>0.360416666666667</v>
+      </c>
+      <c r="F43" s="17" t="n">
         <v>3.5625</v>
       </c>
-      <c r="G43" s="8" t="n">
-        <v>7.63819444444444</v>
-      </c>
-      <c r="H43" s="9" t="n">
-        <v>16.7201388888889</v>
-      </c>
-      <c r="I43" s="9" t="n">
-        <v>-163.213194444444</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="G43" s="17" t="n">
+        <v>8.67291666666667</v>
+      </c>
+      <c r="H43" s="18" t="n">
+        <v>0.756944444444444</v>
+      </c>
+      <c r="I43" s="18" t="n">
+        <v>0.817361111111111</v>
+      </c>
+    </row>
+    <row r="44" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="D44" s="4" t="n">
-        <v>0.297222222222222</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>1.38541666666667</v>
-      </c>
-      <c r="F44" s="4" t="n">
+      <c r="D44" s="13" t="n">
+        <v>0.277777777777778</v>
+      </c>
+      <c r="E44" s="13" t="n">
+        <v>0.359027777777778</v>
+      </c>
+      <c r="F44" s="13" t="n">
         <v>4.5625</v>
       </c>
-      <c r="G44" s="4" t="n">
-        <v>8.63888888888889</v>
-      </c>
-      <c r="H44" s="5" t="n">
-        <v>17.7208333333333</v>
-      </c>
-      <c r="I44" s="5" t="n">
-        <v>-174.2125</v>
+      <c r="G44" s="13" t="n">
+        <v>10.6743055555556</v>
+      </c>
+      <c r="H44" s="14" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="I44" s="14" t="n">
+        <v>0.81875</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+      <c r="A45" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="D45" s="8" t="n">
-        <v>1.29722222222222</v>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v>0.384722222222222</v>
-      </c>
-      <c r="F45" s="8" t="n">
+      <c r="D45" s="17" t="n">
+        <v>0.276388888888889</v>
+      </c>
+      <c r="E45" s="17" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="F45" s="17" t="n">
         <v>5.5625</v>
       </c>
-      <c r="G45" s="8" t="n">
-        <v>10.6402777777778</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <v>18.7215277777778</v>
-      </c>
-      <c r="I45" s="9" t="n">
-        <v>-185.211805555556</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="G45" s="17" t="n">
+        <v>12.6756944444444</v>
+      </c>
+      <c r="H45" s="18" t="n">
+        <v>0.759722222222222</v>
+      </c>
+      <c r="I45" s="18" t="n">
+        <v>0.820138888888889</v>
+      </c>
+    </row>
+    <row r="46" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <v>2.29722222222222</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>1.38472222222222</v>
-      </c>
-      <c r="F46" s="4" t="n">
+      <c r="D46" s="13" t="n">
+        <v>0.275694444444444</v>
+      </c>
+      <c r="E46" s="13" t="n">
+        <v>0.35625</v>
+      </c>
+      <c r="F46" s="13" t="n">
         <v>6.5625</v>
       </c>
-      <c r="G46" s="4" t="n">
-        <v>11.6409722222222</v>
-      </c>
-      <c r="H46" s="5" t="n">
-        <v>20.7229166666667</v>
-      </c>
-      <c r="I46" s="5" t="n">
-        <v>-196.211111111111</v>
+      <c r="G46" s="13" t="n">
+        <v>14.6770833333333</v>
+      </c>
+      <c r="H46" s="14" t="n">
+        <v>0.761111111111111</v>
+      </c>
+      <c r="I46" s="14" t="n">
+        <v>0.821527777777778</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="D47" s="8" t="n">
-        <v>3.29722222222222</v>
-      </c>
-      <c r="E47" s="8" t="n">
-        <v>0.384027777777778</v>
-      </c>
-      <c r="F47" s="8" t="n">
+      <c r="D47" s="17" t="n">
+        <v>0.274305555555556</v>
+      </c>
+      <c r="E47" s="17" t="n">
+        <v>0.354861111111111</v>
+      </c>
+      <c r="F47" s="17" t="n">
         <v>7.5625</v>
       </c>
-      <c r="G47" s="8" t="n">
-        <v>12.6416666666667</v>
-      </c>
-      <c r="H47" s="9" t="n">
-        <v>21.7236111111111</v>
-      </c>
-      <c r="I47" s="9" t="n">
-        <v>-207.210416666667</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="G47" s="17" t="n">
+        <v>16.6784722222222</v>
+      </c>
+      <c r="H47" s="18" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="I47" s="18" t="n">
+        <v>0.822222222222222</v>
+      </c>
+    </row>
+    <row r="48" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <v>0.296527777777778</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>0.383333333333333</v>
-      </c>
-      <c r="F48" s="4" t="n">
+      <c r="D48" s="13" t="n">
+        <v>0.272916666666667</v>
+      </c>
+      <c r="E48" s="13" t="n">
+        <v>0.353472222222222</v>
+      </c>
+      <c r="F48" s="13" t="n">
         <v>8.5625</v>
       </c>
-      <c r="G48" s="4" t="n">
-        <v>14.6430555555556</v>
-      </c>
-      <c r="H48" s="5" t="n">
-        <v>23.725</v>
-      </c>
-      <c r="I48" s="5" t="n">
-        <v>-218.209722222222</v>
+      <c r="G48" s="13" t="n">
+        <v>17.6791666666667</v>
+      </c>
+      <c r="H48" s="14" t="n">
+        <v>0.763888888888889</v>
+      </c>
+      <c r="I48" s="14" t="n">
+        <v>0.823611111111111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+      <c r="A49" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="D49" s="8" t="n">
-        <v>1.29652777777778</v>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="F49" s="8" t="n">
+      <c r="D49" s="17" t="n">
+        <v>0.272222222222222</v>
+      </c>
+      <c r="E49" s="17" t="n">
+        <v>0.352083333333333</v>
+      </c>
+      <c r="F49" s="17" t="n">
         <v>9.5625</v>
       </c>
-      <c r="G49" s="8" t="n">
-        <v>15.64375</v>
-      </c>
-      <c r="H49" s="9" t="n">
-        <v>24.7256944444444</v>
-      </c>
-      <c r="I49" s="9" t="n">
-        <v>-240.208333333333</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="G49" s="17" t="n">
+        <v>19.6805555555556</v>
+      </c>
+      <c r="H49" s="18" t="n">
+        <v>0.765277777777778</v>
+      </c>
+      <c r="I49" s="18" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="50" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="D50" s="4" t="n">
-        <v>0.295833333333333</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>0.382638888888889</v>
-      </c>
-      <c r="F50" s="4" t="n">
+      <c r="D50" s="13" t="n">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="E50" s="13" t="n">
+        <v>0.351388888888889</v>
+      </c>
+      <c r="F50" s="13" t="n">
         <v>10.5625</v>
       </c>
-      <c r="G50" s="4" t="n">
-        <v>17.6451388888889</v>
-      </c>
-      <c r="H50" s="5" t="n">
-        <v>26.7270833333333</v>
-      </c>
-      <c r="I50" s="5" t="n">
-        <v>-251.207638888889</v>
+      <c r="G50" s="13" t="n">
+        <v>21.6819444444444</v>
+      </c>
+      <c r="H50" s="14" t="n">
+        <v>0.765972222222222</v>
+      </c>
+      <c r="I50" s="14" t="n">
+        <v>0.825694444444444</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+      <c r="A51" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="7" t="n">
+      <c r="C51" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="D51" s="8" t="n">
-        <v>1.29583333333333</v>
-      </c>
-      <c r="E51" s="8" t="n">
-        <v>0.381944444444445</v>
-      </c>
-      <c r="F51" s="8" t="n">
+      <c r="D51" s="17" t="n">
+        <v>0.269444444444444</v>
+      </c>
+      <c r="E51" s="17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F51" s="17" t="n">
         <v>11.5625</v>
       </c>
-      <c r="G51" s="8" t="n">
-        <v>18.6458333333333</v>
-      </c>
-      <c r="H51" s="9" t="n">
-        <v>27.7277777777778</v>
-      </c>
-      <c r="I51" s="9" t="n">
-        <v>-262.206944444445</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="G51" s="17" t="n">
+        <v>23.6833333333333</v>
+      </c>
+      <c r="H51" s="18" t="n">
+        <v>0.767361111111111</v>
+      </c>
+      <c r="I51" s="18" t="n">
+        <v>0.827083333333333</v>
+      </c>
+    </row>
+    <row r="52" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="D52" s="4" t="n">
-        <v>0.295138888888889</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <v>0.38125</v>
-      </c>
-      <c r="F52" s="4" t="n">
+      <c r="D52" s="13" t="n">
+        <v>0.268055555555556</v>
+      </c>
+      <c r="E52" s="13" t="n">
+        <v>0.348611111111111</v>
+      </c>
+      <c r="F52" s="13" t="n">
         <v>12.5625</v>
       </c>
-      <c r="G52" s="4" t="n">
-        <v>20.6472222222222</v>
-      </c>
-      <c r="H52" s="5" t="n">
-        <v>29.7291666666667</v>
-      </c>
-      <c r="I52" s="5" t="n">
-        <v>-284.205555555556</v>
+      <c r="G52" s="13" t="n">
+        <v>25.6847222222222</v>
+      </c>
+      <c r="H52" s="14" t="n">
+        <v>0.76875</v>
+      </c>
+      <c r="I52" s="14" t="n">
+        <v>0.828472222222222</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+      <c r="A53" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="D53" s="8" t="n">
-        <v>0.294444444444444</v>
-      </c>
-      <c r="E53" s="8" t="n">
-        <v>0.380555555555556</v>
-      </c>
-      <c r="F53" s="8" t="n">
+      <c r="D53" s="17" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="E53" s="17" t="n">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="F53" s="17" t="n">
         <v>13.5625</v>
       </c>
-      <c r="G53" s="8" t="n">
-        <v>21.6479166666667</v>
-      </c>
-      <c r="H53" s="9" t="n">
-        <v>31.7305555555556</v>
-      </c>
-      <c r="I53" s="9" t="n">
-        <v>-295.204861111111</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="G53" s="17" t="n">
+        <v>26.6854166666667</v>
+      </c>
+      <c r="H53" s="18" t="n">
+        <v>0.770138888888889</v>
+      </c>
+      <c r="I53" s="18" t="n">
+        <v>0.829861111111111</v>
+      </c>
+    </row>
+    <row r="54" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="D54" s="4" t="n">
-        <v>1.29444444444444</v>
-      </c>
-      <c r="E54" s="4" t="n">
-        <v>0.379861111111111</v>
-      </c>
-      <c r="F54" s="4" t="n">
+      <c r="D54" s="13" t="n">
+        <v>0.265277777777778</v>
+      </c>
+      <c r="E54" s="13" t="n">
+        <v>0.345138888888889</v>
+      </c>
+      <c r="F54" s="13" t="n">
         <v>14.5625</v>
       </c>
-      <c r="G54" s="4" t="n">
-        <v>23.6493055555556</v>
-      </c>
-      <c r="H54" s="5" t="n">
-        <v>32.73125</v>
-      </c>
-      <c r="I54" s="5" t="n">
-        <v>-306.204166666667</v>
+      <c r="G54" s="13" t="n">
+        <v>28.6868055555556</v>
+      </c>
+      <c r="H54" s="14" t="n">
+        <v>0.771527777777778</v>
+      </c>
+      <c r="I54" s="14" t="n">
+        <v>0.830555555555556</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
+      <c r="A55" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="D55" s="8" t="n">
-        <v>0.29375</v>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v>0.379166666666667</v>
-      </c>
-      <c r="F55" s="8" t="n">
+      <c r="D55" s="17" t="n">
+        <v>0.264583333333333</v>
+      </c>
+      <c r="E55" s="17" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="F55" s="17" t="n">
         <v>15.5625</v>
       </c>
-      <c r="G55" s="8" t="n">
-        <v>24.65</v>
-      </c>
-      <c r="H55" s="9" t="n">
-        <v>34.7326388888889</v>
-      </c>
-      <c r="I55" s="9" t="n">
-        <v>-328.202777777778</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="G55" s="17" t="n">
+        <v>30.6881944444444</v>
+      </c>
+      <c r="H55" s="18" t="n">
+        <v>0.772916666666667</v>
+      </c>
+      <c r="I55" s="18" t="n">
+        <v>0.831944444444445</v>
+      </c>
+    </row>
+    <row r="56" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="D56" s="4" t="n">
-        <v>0.293055555555556</v>
-      </c>
-      <c r="E56" s="4" t="n">
-        <v>0.378472222222222</v>
-      </c>
-      <c r="F56" s="4" t="n">
+      <c r="D56" s="13" t="n">
+        <v>0.263194444444444</v>
+      </c>
+      <c r="E56" s="13" t="n">
+        <v>0.342361111111111</v>
+      </c>
+      <c r="F56" s="13" t="n">
         <v>16.5625</v>
       </c>
-      <c r="G56" s="4" t="n">
-        <v>26.6513888888889</v>
-      </c>
-      <c r="H56" s="5" t="n">
-        <v>36.7340277777778</v>
-      </c>
-      <c r="I56" s="5" t="n">
-        <v>-339.202083333333</v>
+      <c r="G56" s="13" t="n">
+        <v>32.6895833333333</v>
+      </c>
+      <c r="H56" s="14" t="n">
+        <v>0.774305555555556</v>
+      </c>
+      <c r="I56" s="14" t="n">
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="n">
+      <c r="A57" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="D57" s="8" t="n">
-        <v>0.292361111111111</v>
-      </c>
-      <c r="E57" s="8" t="n">
-        <v>0.377777777777778</v>
-      </c>
-      <c r="F57" s="8" t="n">
+      <c r="D57" s="17" t="n">
+        <v>0.261805555555556</v>
+      </c>
+      <c r="E57" s="17" t="n">
+        <v>0.340972222222222</v>
+      </c>
+      <c r="F57" s="17" t="n">
         <v>17.5625</v>
       </c>
-      <c r="G57" s="8" t="n">
-        <v>28.6527777777778</v>
-      </c>
-      <c r="H57" s="9" t="n">
-        <v>37.7347222222222</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <v>-361.200694444445</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="G57" s="17" t="n">
+        <v>33.6902777777778</v>
+      </c>
+      <c r="H57" s="18" t="n">
+        <v>0.775694444444445</v>
+      </c>
+      <c r="I57" s="18" t="n">
+        <v>0.834722222222222</v>
+      </c>
+    </row>
+    <row r="58" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="D58" s="4" t="n">
-        <v>1.29236111111111</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>0.377083333333333</v>
-      </c>
-      <c r="F58" s="4" t="n">
+      <c r="D58" s="13" t="n">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E58" s="13" t="n">
+        <v>0.339583333333333</v>
+      </c>
+      <c r="F58" s="13" t="n">
         <v>18.5625</v>
       </c>
-      <c r="G58" s="4" t="n">
-        <v>29.6534722222222</v>
-      </c>
-      <c r="H58" s="5" t="n">
-        <v>39.7361111111111</v>
-      </c>
-      <c r="I58" s="5" t="n">
-        <v>-372.2</v>
+      <c r="G58" s="13" t="n">
+        <v>35.6916666666667</v>
+      </c>
+      <c r="H58" s="14" t="n">
+        <v>0.777083333333333</v>
+      </c>
+      <c r="I58" s="14" t="n">
+        <v>0.835416666666667</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
+      <c r="A59" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C59" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="D59" s="8" t="n">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="E59" s="8" t="n">
-        <v>0.376388888888889</v>
-      </c>
-      <c r="F59" s="8" t="n">
+      <c r="D59" s="17" t="n">
+        <v>0.259027777777778</v>
+      </c>
+      <c r="E59" s="17" t="n">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="F59" s="17" t="n">
         <v>19.5625</v>
       </c>
-      <c r="G59" s="8" t="n">
-        <v>31.6548611111111</v>
-      </c>
-      <c r="H59" s="9" t="n">
-        <v>41.7375</v>
-      </c>
-      <c r="I59" s="9" t="n">
-        <v>-394.198611111111</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="G59" s="17" t="n">
+        <v>37.6930555555556</v>
+      </c>
+      <c r="H59" s="18" t="n">
+        <v>0.778472222222222</v>
+      </c>
+      <c r="I59" s="18" t="n">
+        <v>0.836805555555556</v>
+      </c>
+    </row>
+    <row r="60" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="D60" s="4" t="n">
-        <v>0.290972222222222</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="F60" s="4" t="n">
+      <c r="D60" s="13" t="n">
+        <v>0.257638888888889</v>
+      </c>
+      <c r="E60" s="13" t="n">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="F60" s="13" t="n">
         <v>20.5625</v>
       </c>
-      <c r="G60" s="4" t="n">
-        <v>33.65625</v>
-      </c>
-      <c r="H60" s="5" t="n">
-        <v>43.7388888888889</v>
-      </c>
-      <c r="I60" s="5" t="n">
-        <v>-405.197916666667</v>
+      <c r="G60" s="13" t="n">
+        <v>38.69375</v>
+      </c>
+      <c r="H60" s="14" t="n">
+        <v>0.779166666666667</v>
+      </c>
+      <c r="I60" s="14" t="n">
+        <v>0.838194444444445</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="n">
+      <c r="A61" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="7" t="n">
+      <c r="C61" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="D61" s="8" t="n">
-        <v>0.290277777777778</v>
-      </c>
-      <c r="E61" s="8" t="n">
-        <v>0.374305555555556</v>
-      </c>
-      <c r="F61" s="8" t="n">
+      <c r="D61" s="17" t="n">
+        <v>0.255555555555556</v>
+      </c>
+      <c r="E61" s="17" t="n">
+        <v>0.335416666666667</v>
+      </c>
+      <c r="F61" s="17" t="n">
         <v>21.5625</v>
       </c>
-      <c r="G61" s="8" t="n">
-        <v>34.6569444444444</v>
-      </c>
-      <c r="H61" s="9" t="n">
-        <v>45.7402777777778</v>
-      </c>
-      <c r="I61" s="9" t="n">
-        <v>-427.196527777778</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="G61" s="17" t="n">
+        <v>40.6951388888889</v>
+      </c>
+      <c r="H61" s="18" t="n">
+        <v>0.780555555555556</v>
+      </c>
+      <c r="I61" s="18" t="n">
+        <v>0.839583333333333</v>
+      </c>
+    </row>
+    <row r="62" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="D62" s="4" t="n">
-        <v>0.289583333333333</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>0.373611111111111</v>
-      </c>
-      <c r="F62" s="4" t="n">
+      <c r="D62" s="13" t="n">
+        <v>0.254166666666667</v>
+      </c>
+      <c r="E62" s="13" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F62" s="13" t="n">
         <v>22.5625</v>
       </c>
-      <c r="G62" s="4" t="n">
-        <v>36.6583333333333</v>
-      </c>
-      <c r="H62" s="5" t="n">
-        <v>46.7409722222222</v>
-      </c>
-      <c r="I62" s="5" t="n">
-        <v>-438.195833333333</v>
+      <c r="G62" s="13" t="n">
+        <v>42.6965277777778</v>
+      </c>
+      <c r="H62" s="14" t="n">
+        <v>0.781944444444444</v>
+      </c>
+      <c r="I62" s="14" t="n">
+        <v>0.840277777777778</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="n">
+      <c r="A63" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="7" t="n">
+      <c r="C63" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="D63" s="8" t="n">
-        <v>0.288888888888889</v>
-      </c>
-      <c r="E63" s="8" t="n">
-        <v>0.372222222222222</v>
-      </c>
-      <c r="F63" s="8" t="n">
+      <c r="D63" s="17" t="n">
+        <v>0.252777777777778</v>
+      </c>
+      <c r="E63" s="17" t="n">
+        <v>0.331944444444444</v>
+      </c>
+      <c r="F63" s="17" t="n">
         <v>23.5625</v>
       </c>
-      <c r="G63" s="8" t="n">
-        <v>38.6597222222222</v>
-      </c>
-      <c r="H63" s="9" t="n">
-        <v>48.7423611111111</v>
-      </c>
-      <c r="I63" s="9" t="n">
-        <v>-460.194444444444</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="G63" s="17" t="n">
+        <v>43.6972222222222</v>
+      </c>
+      <c r="H63" s="18" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="I63" s="18" t="n">
+        <v>0.841666666666667</v>
+      </c>
+    </row>
+    <row r="64" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="D64" s="4" t="n">
-        <v>0.288194444444444</v>
-      </c>
-      <c r="E64" s="4" t="n">
-        <v>0.371527777777778</v>
-      </c>
-      <c r="F64" s="4" t="n">
+      <c r="D64" s="13" t="n">
+        <v>0.251388888888889</v>
+      </c>
+      <c r="E64" s="13" t="n">
+        <v>0.330555555555556</v>
+      </c>
+      <c r="F64" s="13" t="n">
         <v>24.5625</v>
       </c>
-      <c r="G64" s="4" t="n">
-        <v>40.6611111111111</v>
-      </c>
-      <c r="H64" s="5" t="n">
-        <v>50.74375</v>
-      </c>
-      <c r="I64" s="5" t="n">
-        <v>-471.19375</v>
+      <c r="G64" s="13" t="n">
+        <v>45.6986111111111</v>
+      </c>
+      <c r="H64" s="14" t="n">
+        <v>0.784722222222222</v>
+      </c>
+      <c r="I64" s="14" t="n">
+        <v>0.843055555555556</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="n">
+      <c r="A65" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="7" t="n">
+      <c r="C65" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="D65" s="8" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="E65" s="8" t="n">
-        <v>0.370138888888889</v>
-      </c>
-      <c r="F65" s="8" t="n">
+      <c r="D65" s="17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E65" s="17" t="n">
+        <v>0.329166666666667</v>
+      </c>
+      <c r="F65" s="17" t="n">
         <v>25.5625</v>
       </c>
-      <c r="G65" s="8" t="n">
-        <v>41.6618055555556</v>
-      </c>
-      <c r="H65" s="9" t="n">
-        <v>52.7451388888889</v>
-      </c>
-      <c r="I65" s="9" t="n">
-        <v>-493.192361111111</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>0.286805555555556</v>
-      </c>
-      <c r="E66" s="4" t="n">
-        <v>0.369444444444444</v>
-      </c>
-      <c r="F66" s="4" t="n">
-        <v>26.5625</v>
-      </c>
-      <c r="G66" s="4" t="n">
-        <v>43.6631944444444</v>
-      </c>
-      <c r="H66" s="5" t="n">
-        <v>54.7465277777778</v>
-      </c>
-      <c r="I66" s="5" t="n">
-        <v>-504.191666666667</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" s="8" t="n">
-        <v>0.286111111111111</v>
-      </c>
-      <c r="E67" s="8" t="n">
-        <v>0.36875</v>
-      </c>
-      <c r="F67" s="8" t="n">
-        <v>27.5625</v>
-      </c>
-      <c r="G67" s="8" t="n">
-        <v>45.6645833333333</v>
-      </c>
-      <c r="H67" s="9" t="n">
-        <v>56.7479166666667</v>
-      </c>
-      <c r="I67" s="9" t="n">
-        <v>-526.190277777778</v>
-      </c>
-    </row>
+      <c r="G65" s="17" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="H65" s="18" t="n">
+        <v>0.786111111111111</v>
+      </c>
+      <c r="I65" s="18" t="n">
+        <v>0.844444444444444</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="G74" s="0"/>
+      <c r="H74" s="0"/>
+      <c r="I74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="G78" s="0"/>
+      <c r="H78" s="0"/>
+      <c r="I78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="H84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0"/>
+      <c r="H85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="0"/>
+      <c r="H86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0"/>
+      <c r="H87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0"/>
+      <c r="H88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="0"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Время Намаза 25.xlsx
+++ b/Время Намаза 25.xlsx
@@ -201,8 +201,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,10 +230,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,10 +246,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,22 +255,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,8 +443,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="A36:I65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -473,77 +453,77 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>0.297916666666667</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.386805555555556</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>1.63402777777778</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <v>10.7159722222222</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="6" t="n">
         <v>-97.2173611111112</v>
       </c>
     </row>
@@ -576,32 +556,32 @@
         <v>-108.216666666667</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>2.29791666666667</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.386111111111111</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>3.63541666666667</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>12.7173611111111</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <v>-119.215972222222</v>
       </c>
     </row>
@@ -634,32 +614,32 @@
         <v>-130.215277777778</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>4.29791666666667</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>2.38611111111111</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>2.5625</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>6.6375</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="6" t="n">
         <v>14.71875</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="6" t="n">
         <v>-141.214583333333</v>
       </c>
     </row>
@@ -692,32 +672,32 @@
         <v>-163.213194444444</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.297222222222222</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>1.38541666666667</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>4.5625</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>8.63888888888889</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <v>17.7208333333333</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="6" t="n">
         <v>-174.2125</v>
       </c>
     </row>
@@ -750,32 +730,32 @@
         <v>-185.211805555556</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>2.29722222222222</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>1.38472222222222</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>6.5625</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>11.6409722222222</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="6" t="n">
         <v>20.7229166666667</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="6" t="n">
         <v>-196.211111111111</v>
       </c>
     </row>
@@ -808,32 +788,32 @@
         <v>-207.210416666667</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>0.296527777777778</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>0.383333333333333</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>8.5625</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>14.6430555555556</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="6" t="n">
         <v>23.725</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="6" t="n">
         <v>-218.209722222222</v>
       </c>
     </row>
@@ -866,32 +846,32 @@
         <v>-240.208333333333</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.295833333333333</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.382638888888889</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>10.5625</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>17.6451388888889</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="6" t="n">
         <v>26.7270833333333</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="6" t="n">
         <v>-251.207638888889</v>
       </c>
     </row>
@@ -924,32 +904,32 @@
         <v>-262.206944444445</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.38125</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>12.5625</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>20.6472222222222</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="6" t="n">
         <v>29.7291666666667</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="6" t="n">
         <v>-284.205555555556</v>
       </c>
     </row>
@@ -982,32 +962,32 @@
         <v>-295.204861111111</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>1.29444444444444</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>0.379861111111111</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>14.5625</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>23.6493055555556</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="6" t="n">
         <v>32.73125</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="6" t="n">
         <v>-306.204166666667</v>
       </c>
     </row>
@@ -1040,32 +1020,32 @@
         <v>-328.202777777778</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.293055555555556</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.378472222222222</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>16.5625</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>26.6513888888889</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="6" t="n">
         <v>36.7340277777778</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="6" t="n">
         <v>-339.202083333333</v>
       </c>
     </row>
@@ -1098,32 +1078,32 @@
         <v>-361.200694444445</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>1.29236111111111</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>0.377083333333333</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <v>18.5625</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <v>29.6534722222222</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="6" t="n">
         <v>39.7361111111111</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="6" t="n">
         <v>-372.2</v>
       </c>
     </row>
@@ -1156,32 +1136,32 @@
         <v>-394.198611111111</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>0.290972222222222</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>0.375</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="5" t="n">
         <v>20.5625</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="5" t="n">
         <v>33.65625</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="6" t="n">
         <v>43.7388888888889</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="6" t="n">
         <v>-405.197916666667</v>
       </c>
     </row>
@@ -1214,32 +1194,32 @@
         <v>-427.196527777778</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>0.289583333333333</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>0.373611111111111</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <v>22.5625</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>36.6583333333333</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="6" t="n">
         <v>46.7409722222222</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="6" t="n">
         <v>-438.195833333333</v>
       </c>
     </row>
@@ -1272,32 +1252,32 @@
         <v>-460.194444444444</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>0.288194444444444</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="5" t="n">
         <v>0.371527777777778</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <v>24.5625</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <v>40.6611111111111</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="6" t="n">
         <v>50.74375</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="6" t="n">
         <v>-471.19375</v>
       </c>
     </row>
@@ -1330,32 +1310,32 @@
         <v>-493.192361111111</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>0.286805555555556</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="5" t="n">
         <v>0.369444444444444</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="5" t="n">
         <v>26.5625</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="5" t="n">
         <v>43.6631944444444</v>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="6" t="n">
         <v>54.7465277777778</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="6" t="n">
         <v>-504.191666666667</v>
       </c>
     </row>
@@ -1388,7 +1368,7 @@
         <v>-526.190277777778</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
         <v>24</v>
       </c>
@@ -1433,1008 +1413,858 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="12" t="n">
+      <c r="C38" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="13" t="n">
+      <c r="D38" s="12" t="n">
         <v>0.283333333333333</v>
       </c>
-      <c r="E38" s="13" t="n">
+      <c r="E38" s="12" t="n">
         <v>0.365972222222222</v>
       </c>
-      <c r="F38" s="13" t="n">
+      <c r="F38" s="12" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G38" s="13" t="n">
+      <c r="G38" s="12" t="n">
         <v>0.667361111111111</v>
       </c>
-      <c r="H38" s="14" t="n">
+      <c r="H38" s="13" t="n">
         <v>0.75</v>
       </c>
-      <c r="I38" s="14" t="n">
+      <c r="I38" s="13" t="n">
         <v>0.811805555555556</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="n">
+      <c r="A39" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="16" t="n">
+      <c r="C39" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="17" t="n">
+      <c r="D39" s="8" t="n">
         <v>0.282638888888889</v>
       </c>
-      <c r="E39" s="17" t="n">
+      <c r="E39" s="8" t="n">
         <v>0.365277777777778</v>
       </c>
-      <c r="F39" s="17" t="n">
+      <c r="F39" s="8" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G39" s="17" t="n">
+      <c r="G39" s="8" t="n">
         <v>1.66805555555556</v>
       </c>
-      <c r="H39" s="18" t="n">
+      <c r="H39" s="9" t="n">
         <v>0.751388888888889</v>
       </c>
-      <c r="I39" s="18" t="n">
+      <c r="I39" s="9" t="n">
         <v>0.813194444444444</v>
       </c>
     </row>
-    <row r="40" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+    <row r="40" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="12" t="n">
+      <c r="C40" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="13" t="n">
+      <c r="D40" s="12" t="n">
         <v>0.281944444444444</v>
       </c>
-      <c r="E40" s="13" t="n">
+      <c r="E40" s="12" t="n">
         <v>0.363888888888889</v>
       </c>
-      <c r="F40" s="13" t="n">
+      <c r="F40" s="12" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G40" s="13" t="n">
+      <c r="G40" s="12" t="n">
         <v>3.66944444444444</v>
       </c>
-      <c r="H40" s="14" t="n">
+      <c r="H40" s="13" t="n">
         <v>0.752777777777778</v>
       </c>
-      <c r="I40" s="14" t="n">
+      <c r="I40" s="13" t="n">
         <v>0.813888888888889</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="n">
+      <c r="A41" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="16" t="n">
+      <c r="C41" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="D41" s="17" t="n">
+      <c r="D41" s="8" t="n">
         <v>0.280555555555556</v>
       </c>
-      <c r="E41" s="17" t="n">
+      <c r="E41" s="8" t="n">
         <v>0.3625</v>
       </c>
-      <c r="F41" s="17" t="n">
+      <c r="F41" s="8" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G41" s="17" t="n">
+      <c r="G41" s="8" t="n">
         <v>5.67083333333333</v>
       </c>
-      <c r="H41" s="18" t="n">
+      <c r="H41" s="9" t="n">
         <v>0.754166666666667</v>
       </c>
-      <c r="I41" s="18" t="n">
+      <c r="I41" s="9" t="n">
         <v>0.815277777777778</v>
       </c>
     </row>
-    <row r="42" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+    <row r="42" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="12" t="n">
+      <c r="C42" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="12" t="n">
         <v>0.279861111111111</v>
       </c>
-      <c r="E42" s="13" t="n">
+      <c r="E42" s="12" t="n">
         <v>0.361111111111111</v>
       </c>
-      <c r="F42" s="13" t="n">
+      <c r="F42" s="12" t="n">
         <v>2.5625</v>
       </c>
-      <c r="G42" s="13" t="n">
+      <c r="G42" s="12" t="n">
         <v>7.67222222222222</v>
       </c>
-      <c r="H42" s="14" t="n">
+      <c r="H42" s="13" t="n">
         <v>0.755555555555556</v>
       </c>
-      <c r="I42" s="14" t="n">
+      <c r="I42" s="13" t="n">
         <v>0.816666666666667</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="n">
+      <c r="A43" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="16" t="n">
+      <c r="C43" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="D43" s="17" t="n">
+      <c r="D43" s="8" t="n">
         <v>0.278472222222222</v>
       </c>
-      <c r="E43" s="17" t="n">
+      <c r="E43" s="8" t="n">
         <v>0.360416666666667</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="8" t="n">
         <v>3.5625</v>
       </c>
-      <c r="G43" s="17" t="n">
+      <c r="G43" s="8" t="n">
         <v>8.67291666666667</v>
       </c>
-      <c r="H43" s="18" t="n">
+      <c r="H43" s="9" t="n">
         <v>0.756944444444444</v>
       </c>
-      <c r="I43" s="18" t="n">
+      <c r="I43" s="9" t="n">
         <v>0.817361111111111</v>
       </c>
     </row>
-    <row r="44" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
+    <row r="44" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="12" t="n">
+      <c r="C44" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="12" t="n">
         <v>0.277777777777778</v>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="12" t="n">
         <v>0.359027777777778</v>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F44" s="12" t="n">
         <v>4.5625</v>
       </c>
-      <c r="G44" s="13" t="n">
+      <c r="G44" s="12" t="n">
         <v>10.6743055555556</v>
       </c>
-      <c r="H44" s="14" t="n">
+      <c r="H44" s="13" t="n">
         <v>0.758333333333333</v>
       </c>
-      <c r="I44" s="14" t="n">
+      <c r="I44" s="13" t="n">
         <v>0.81875</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="n">
+      <c r="A45" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="16" t="n">
+      <c r="C45" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="D45" s="17" t="n">
+      <c r="D45" s="8" t="n">
         <v>0.276388888888889</v>
       </c>
-      <c r="E45" s="17" t="n">
+      <c r="E45" s="8" t="n">
         <v>0.357638888888889</v>
       </c>
-      <c r="F45" s="17" t="n">
+      <c r="F45" s="8" t="n">
         <v>5.5625</v>
       </c>
-      <c r="G45" s="17" t="n">
+      <c r="G45" s="8" t="n">
         <v>12.6756944444444</v>
       </c>
-      <c r="H45" s="18" t="n">
+      <c r="H45" s="9" t="n">
         <v>0.759722222222222</v>
       </c>
-      <c r="I45" s="18" t="n">
+      <c r="I45" s="9" t="n">
         <v>0.820138888888889</v>
       </c>
     </row>
-    <row r="46" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
+    <row r="46" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="12" t="n">
+      <c r="C46" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="12" t="n">
         <v>0.275694444444444</v>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="12" t="n">
         <v>0.35625</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="12" t="n">
         <v>6.5625</v>
       </c>
-      <c r="G46" s="13" t="n">
+      <c r="G46" s="12" t="n">
         <v>14.6770833333333</v>
       </c>
-      <c r="H46" s="14" t="n">
+      <c r="H46" s="13" t="n">
         <v>0.761111111111111</v>
       </c>
-      <c r="I46" s="14" t="n">
+      <c r="I46" s="13" t="n">
         <v>0.821527777777778</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="n">
+      <c r="A47" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="16" t="n">
+      <c r="C47" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="D47" s="17" t="n">
+      <c r="D47" s="8" t="n">
         <v>0.274305555555556</v>
       </c>
-      <c r="E47" s="17" t="n">
+      <c r="E47" s="8" t="n">
         <v>0.354861111111111</v>
       </c>
-      <c r="F47" s="17" t="n">
+      <c r="F47" s="8" t="n">
         <v>7.5625</v>
       </c>
-      <c r="G47" s="17" t="n">
+      <c r="G47" s="8" t="n">
         <v>16.6784722222222</v>
       </c>
-      <c r="H47" s="18" t="n">
+      <c r="H47" s="9" t="n">
         <v>0.7625</v>
       </c>
-      <c r="I47" s="18" t="n">
+      <c r="I47" s="9" t="n">
         <v>0.822222222222222</v>
       </c>
     </row>
-    <row r="48" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="n">
+    <row r="48" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="12" t="n">
+      <c r="C48" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="12" t="n">
         <v>0.272916666666667</v>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="12" t="n">
         <v>0.353472222222222</v>
       </c>
-      <c r="F48" s="13" t="n">
+      <c r="F48" s="12" t="n">
         <v>8.5625</v>
       </c>
-      <c r="G48" s="13" t="n">
+      <c r="G48" s="12" t="n">
         <v>17.6791666666667</v>
       </c>
-      <c r="H48" s="14" t="n">
+      <c r="H48" s="13" t="n">
         <v>0.763888888888889</v>
       </c>
-      <c r="I48" s="14" t="n">
+      <c r="I48" s="13" t="n">
         <v>0.823611111111111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="n">
+      <c r="A49" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="16" t="n">
+      <c r="C49" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="D49" s="17" t="n">
+      <c r="D49" s="8" t="n">
         <v>0.272222222222222</v>
       </c>
-      <c r="E49" s="17" t="n">
+      <c r="E49" s="8" t="n">
         <v>0.352083333333333</v>
       </c>
-      <c r="F49" s="17" t="n">
+      <c r="F49" s="8" t="n">
         <v>9.5625</v>
       </c>
-      <c r="G49" s="17" t="n">
+      <c r="G49" s="8" t="n">
         <v>19.6805555555556</v>
       </c>
-      <c r="H49" s="18" t="n">
+      <c r="H49" s="9" t="n">
         <v>0.765277777777778</v>
       </c>
-      <c r="I49" s="18" t="n">
+      <c r="I49" s="9" t="n">
         <v>0.825</v>
       </c>
     </row>
-    <row r="50" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
+    <row r="50" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="12" t="n">
+      <c r="C50" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="12" t="n">
         <v>0.270833333333333</v>
       </c>
-      <c r="E50" s="13" t="n">
+      <c r="E50" s="12" t="n">
         <v>0.351388888888889</v>
       </c>
-      <c r="F50" s="13" t="n">
+      <c r="F50" s="12" t="n">
         <v>10.5625</v>
       </c>
-      <c r="G50" s="13" t="n">
+      <c r="G50" s="12" t="n">
         <v>21.6819444444444</v>
       </c>
-      <c r="H50" s="14" t="n">
+      <c r="H50" s="13" t="n">
         <v>0.765972222222222</v>
       </c>
-      <c r="I50" s="14" t="n">
+      <c r="I50" s="13" t="n">
         <v>0.825694444444444</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="n">
+      <c r="A51" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="16" t="n">
+      <c r="C51" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="D51" s="17" t="n">
+      <c r="D51" s="8" t="n">
         <v>0.269444444444444</v>
       </c>
-      <c r="E51" s="17" t="n">
+      <c r="E51" s="8" t="n">
         <v>0.35</v>
       </c>
-      <c r="F51" s="17" t="n">
+      <c r="F51" s="8" t="n">
         <v>11.5625</v>
       </c>
-      <c r="G51" s="17" t="n">
+      <c r="G51" s="8" t="n">
         <v>23.6833333333333</v>
       </c>
-      <c r="H51" s="18" t="n">
+      <c r="H51" s="9" t="n">
         <v>0.767361111111111</v>
       </c>
-      <c r="I51" s="18" t="n">
+      <c r="I51" s="9" t="n">
         <v>0.827083333333333</v>
       </c>
     </row>
-    <row r="52" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
+    <row r="52" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="12" t="n">
+      <c r="C52" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="D52" s="13" t="n">
+      <c r="D52" s="12" t="n">
         <v>0.268055555555556</v>
       </c>
-      <c r="E52" s="13" t="n">
+      <c r="E52" s="12" t="n">
         <v>0.348611111111111</v>
       </c>
-      <c r="F52" s="13" t="n">
+      <c r="F52" s="12" t="n">
         <v>12.5625</v>
       </c>
-      <c r="G52" s="13" t="n">
+      <c r="G52" s="12" t="n">
         <v>25.6847222222222</v>
       </c>
-      <c r="H52" s="14" t="n">
+      <c r="H52" s="13" t="n">
         <v>0.76875</v>
       </c>
-      <c r="I52" s="14" t="n">
+      <c r="I52" s="13" t="n">
         <v>0.828472222222222</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="n">
+      <c r="A53" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="16" t="n">
+      <c r="C53" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="D53" s="17" t="n">
+      <c r="D53" s="8" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="E53" s="17" t="n">
+      <c r="E53" s="8" t="n">
         <v>0.347222222222222</v>
       </c>
-      <c r="F53" s="17" t="n">
+      <c r="F53" s="8" t="n">
         <v>13.5625</v>
       </c>
-      <c r="G53" s="17" t="n">
+      <c r="G53" s="8" t="n">
         <v>26.6854166666667</v>
       </c>
-      <c r="H53" s="18" t="n">
+      <c r="H53" s="9" t="n">
         <v>0.770138888888889</v>
       </c>
-      <c r="I53" s="18" t="n">
+      <c r="I53" s="9" t="n">
         <v>0.829861111111111</v>
       </c>
     </row>
-    <row r="54" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="n">
+    <row r="54" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="12" t="n">
+      <c r="C54" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D54" s="13" t="n">
+      <c r="D54" s="12" t="n">
         <v>0.265277777777778</v>
       </c>
-      <c r="E54" s="13" t="n">
+      <c r="E54" s="12" t="n">
         <v>0.345138888888889</v>
       </c>
-      <c r="F54" s="13" t="n">
+      <c r="F54" s="12" t="n">
         <v>14.5625</v>
       </c>
-      <c r="G54" s="13" t="n">
+      <c r="G54" s="12" t="n">
         <v>28.6868055555556</v>
       </c>
-      <c r="H54" s="14" t="n">
+      <c r="H54" s="13" t="n">
         <v>0.771527777777778</v>
       </c>
-      <c r="I54" s="14" t="n">
+      <c r="I54" s="13" t="n">
         <v>0.830555555555556</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="n">
+      <c r="A55" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="16" t="n">
+      <c r="C55" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="D55" s="17" t="n">
+      <c r="D55" s="8" t="n">
         <v>0.264583333333333</v>
       </c>
-      <c r="E55" s="17" t="n">
+      <c r="E55" s="8" t="n">
         <v>0.34375</v>
       </c>
-      <c r="F55" s="17" t="n">
+      <c r="F55" s="8" t="n">
         <v>15.5625</v>
       </c>
-      <c r="G55" s="17" t="n">
+      <c r="G55" s="8" t="n">
         <v>30.6881944444444</v>
       </c>
-      <c r="H55" s="18" t="n">
+      <c r="H55" s="9" t="n">
         <v>0.772916666666667</v>
       </c>
-      <c r="I55" s="18" t="n">
+      <c r="I55" s="9" t="n">
         <v>0.831944444444445</v>
       </c>
     </row>
-    <row r="56" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="n">
+    <row r="56" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="12" t="n">
+      <c r="C56" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="D56" s="13" t="n">
+      <c r="D56" s="12" t="n">
         <v>0.263194444444444</v>
       </c>
-      <c r="E56" s="13" t="n">
+      <c r="E56" s="12" t="n">
         <v>0.342361111111111</v>
       </c>
-      <c r="F56" s="13" t="n">
+      <c r="F56" s="12" t="n">
         <v>16.5625</v>
       </c>
-      <c r="G56" s="13" t="n">
+      <c r="G56" s="12" t="n">
         <v>32.6895833333333</v>
       </c>
-      <c r="H56" s="14" t="n">
+      <c r="H56" s="13" t="n">
         <v>0.774305555555556</v>
       </c>
-      <c r="I56" s="14" t="n">
+      <c r="I56" s="13" t="n">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="n">
+      <c r="A57" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="16" t="n">
+      <c r="C57" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="D57" s="17" t="n">
+      <c r="D57" s="8" t="n">
         <v>0.261805555555556</v>
       </c>
-      <c r="E57" s="17" t="n">
+      <c r="E57" s="8" t="n">
         <v>0.340972222222222</v>
       </c>
-      <c r="F57" s="17" t="n">
+      <c r="F57" s="8" t="n">
         <v>17.5625</v>
       </c>
-      <c r="G57" s="17" t="n">
+      <c r="G57" s="8" t="n">
         <v>33.6902777777778</v>
       </c>
-      <c r="H57" s="18" t="n">
+      <c r="H57" s="9" t="n">
         <v>0.775694444444445</v>
       </c>
-      <c r="I57" s="18" t="n">
+      <c r="I57" s="9" t="n">
         <v>0.834722222222222</v>
       </c>
     </row>
-    <row r="58" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="n">
+    <row r="58" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="12" t="n">
+      <c r="C58" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D58" s="13" t="n">
+      <c r="D58" s="12" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="E58" s="13" t="n">
+      <c r="E58" s="12" t="n">
         <v>0.339583333333333</v>
       </c>
-      <c r="F58" s="13" t="n">
+      <c r="F58" s="12" t="n">
         <v>18.5625</v>
       </c>
-      <c r="G58" s="13" t="n">
+      <c r="G58" s="12" t="n">
         <v>35.6916666666667</v>
       </c>
-      <c r="H58" s="14" t="n">
+      <c r="H58" s="13" t="n">
         <v>0.777083333333333</v>
       </c>
-      <c r="I58" s="14" t="n">
+      <c r="I58" s="13" t="n">
         <v>0.835416666666667</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="n">
+      <c r="A59" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="16" t="n">
+      <c r="C59" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="D59" s="17" t="n">
+      <c r="D59" s="8" t="n">
         <v>0.259027777777778</v>
       </c>
-      <c r="E59" s="17" t="n">
+      <c r="E59" s="8" t="n">
         <v>0.338194444444444</v>
       </c>
-      <c r="F59" s="17" t="n">
+      <c r="F59" s="8" t="n">
         <v>19.5625</v>
       </c>
-      <c r="G59" s="17" t="n">
+      <c r="G59" s="8" t="n">
         <v>37.6930555555556</v>
       </c>
-      <c r="H59" s="18" t="n">
+      <c r="H59" s="9" t="n">
         <v>0.778472222222222</v>
       </c>
-      <c r="I59" s="18" t="n">
+      <c r="I59" s="9" t="n">
         <v>0.836805555555556</v>
       </c>
     </row>
-    <row r="60" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="n">
+    <row r="60" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="12" t="n">
+      <c r="C60" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="D60" s="13" t="n">
+      <c r="D60" s="12" t="n">
         <v>0.257638888888889</v>
       </c>
-      <c r="E60" s="13" t="n">
+      <c r="E60" s="12" t="n">
         <v>0.336805555555556</v>
       </c>
-      <c r="F60" s="13" t="n">
+      <c r="F60" s="12" t="n">
         <v>20.5625</v>
       </c>
-      <c r="G60" s="13" t="n">
+      <c r="G60" s="12" t="n">
         <v>38.69375</v>
       </c>
-      <c r="H60" s="14" t="n">
+      <c r="H60" s="13" t="n">
         <v>0.779166666666667</v>
       </c>
-      <c r="I60" s="14" t="n">
+      <c r="I60" s="13" t="n">
         <v>0.838194444444445</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="n">
+      <c r="A61" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="16" t="n">
+      <c r="C61" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="D61" s="17" t="n">
+      <c r="D61" s="8" t="n">
         <v>0.255555555555556</v>
       </c>
-      <c r="E61" s="17" t="n">
+      <c r="E61" s="8" t="n">
         <v>0.335416666666667</v>
       </c>
-      <c r="F61" s="17" t="n">
+      <c r="F61" s="8" t="n">
         <v>21.5625</v>
       </c>
-      <c r="G61" s="17" t="n">
+      <c r="G61" s="8" t="n">
         <v>40.6951388888889</v>
       </c>
-      <c r="H61" s="18" t="n">
+      <c r="H61" s="9" t="n">
         <v>0.780555555555556</v>
       </c>
-      <c r="I61" s="18" t="n">
+      <c r="I61" s="9" t="n">
         <v>0.839583333333333</v>
       </c>
     </row>
-    <row r="62" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="n">
+    <row r="62" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="12" t="n">
+      <c r="C62" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="D62" s="13" t="n">
+      <c r="D62" s="12" t="n">
         <v>0.254166666666667</v>
       </c>
-      <c r="E62" s="13" t="n">
+      <c r="E62" s="12" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="F62" s="13" t="n">
+      <c r="F62" s="12" t="n">
         <v>22.5625</v>
       </c>
-      <c r="G62" s="13" t="n">
+      <c r="G62" s="12" t="n">
         <v>42.6965277777778</v>
       </c>
-      <c r="H62" s="14" t="n">
+      <c r="H62" s="13" t="n">
         <v>0.781944444444444</v>
       </c>
-      <c r="I62" s="14" t="n">
+      <c r="I62" s="13" t="n">
         <v>0.840277777777778</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="n">
+      <c r="A63" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="16" t="n">
+      <c r="C63" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="D63" s="17" t="n">
+      <c r="D63" s="8" t="n">
         <v>0.252777777777778</v>
       </c>
-      <c r="E63" s="17" t="n">
+      <c r="E63" s="8" t="n">
         <v>0.331944444444444</v>
       </c>
-      <c r="F63" s="17" t="n">
+      <c r="F63" s="8" t="n">
         <v>23.5625</v>
       </c>
-      <c r="G63" s="17" t="n">
+      <c r="G63" s="8" t="n">
         <v>43.6972222222222</v>
       </c>
-      <c r="H63" s="18" t="n">
+      <c r="H63" s="9" t="n">
         <v>0.783333333333333</v>
       </c>
-      <c r="I63" s="18" t="n">
+      <c r="I63" s="9" t="n">
         <v>0.841666666666667</v>
       </c>
     </row>
-    <row r="64" s="15" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="n">
+    <row r="64" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="12" t="n">
+      <c r="C64" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="D64" s="13" t="n">
+      <c r="D64" s="12" t="n">
         <v>0.251388888888889</v>
       </c>
-      <c r="E64" s="13" t="n">
+      <c r="E64" s="12" t="n">
         <v>0.330555555555556</v>
       </c>
-      <c r="F64" s="13" t="n">
+      <c r="F64" s="12" t="n">
         <v>24.5625</v>
       </c>
-      <c r="G64" s="13" t="n">
+      <c r="G64" s="12" t="n">
         <v>45.6986111111111</v>
       </c>
-      <c r="H64" s="14" t="n">
+      <c r="H64" s="13" t="n">
         <v>0.784722222222222</v>
       </c>
-      <c r="I64" s="14" t="n">
+      <c r="I64" s="13" t="n">
         <v>0.843055555555556</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="n">
+      <c r="A65" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="16" t="n">
+      <c r="C65" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="D65" s="17" t="n">
+      <c r="D65" s="8" t="n">
         <v>0.25</v>
       </c>
-      <c r="E65" s="17" t="n">
+      <c r="E65" s="8" t="n">
         <v>0.329166666666667</v>
       </c>
-      <c r="F65" s="17" t="n">
+      <c r="F65" s="8" t="n">
         <v>25.5625</v>
       </c>
-      <c r="G65" s="17" t="n">
+      <c r="G65" s="8" t="n">
         <v>47.7</v>
       </c>
-      <c r="H65" s="18" t="n">
+      <c r="H65" s="9" t="n">
         <v>0.786111111111111</v>
       </c>
-      <c r="I65" s="18" t="n">
+      <c r="I65" s="9" t="n">
         <v>0.844444444444444</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-      <c r="G68" s="0"/>
-      <c r="H68" s="0"/>
-      <c r="I68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="G69" s="0"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="G70" s="0"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="G71" s="0"/>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="G72" s="0"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="G73" s="0"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-      <c r="G74" s="0"/>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="G75" s="0"/>
-      <c r="H75" s="0"/>
-      <c r="I75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="0"/>
-      <c r="E78" s="0"/>
-      <c r="G78" s="0"/>
-      <c r="H78" s="0"/>
-      <c r="I78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="G80" s="0"/>
-      <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="G81" s="0"/>
-      <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-      <c r="G82" s="0"/>
-      <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-      <c r="H84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="0"/>
-      <c r="H85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="0"/>
-      <c r="H86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="0"/>
-      <c r="H87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="0"/>
-      <c r="H88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Время Намаза 25.xlsx
+++ b/Время Намаза 25.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
   <si>
     <t xml:space="preserve">Январь</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Февраль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Март</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,6 +267,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -451,8 +458,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G99" activeCellId="0" sqref="G70:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1492,31 +1499,31 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="13" t="n">
+      <c r="C39" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="14" t="n">
+      <c r="D39" s="7" t="n">
         <v>0.282638888888889</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="7" t="n">
         <v>0.365277777777778</v>
       </c>
-      <c r="F39" s="14" t="n">
+      <c r="F39" s="7" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G39" s="14" t="n">
+      <c r="G39" s="7" t="n">
         <v>1.66805555555556</v>
       </c>
-      <c r="H39" s="15" t="n">
+      <c r="H39" s="8" t="n">
         <v>0.751388888888889</v>
       </c>
-      <c r="I39" s="15" t="n">
+      <c r="I39" s="8" t="n">
         <v>0.813194444444444</v>
       </c>
     </row>
@@ -1550,31 +1557,31 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="13" t="n">
+      <c r="C41" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D41" s="14" t="n">
+      <c r="D41" s="7" t="n">
         <v>0.280555555555556</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="7" t="n">
         <v>0.3625</v>
       </c>
-      <c r="F41" s="14" t="n">
+      <c r="F41" s="7" t="n">
         <v>1.5625</v>
       </c>
-      <c r="G41" s="14" t="n">
+      <c r="G41" s="7" t="n">
         <v>5.67083333333333</v>
       </c>
-      <c r="H41" s="15" t="n">
+      <c r="H41" s="8" t="n">
         <v>0.754166666666667</v>
       </c>
-      <c r="I41" s="15" t="n">
+      <c r="I41" s="8" t="n">
         <v>0.815277777777778</v>
       </c>
     </row>
@@ -1608,31 +1615,31 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="13" t="n">
+      <c r="C43" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D43" s="14" t="n">
+      <c r="D43" s="7" t="n">
         <v>0.278472222222222</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="E43" s="7" t="n">
         <v>0.360416666666667</v>
       </c>
-      <c r="F43" s="14" t="n">
+      <c r="F43" s="7" t="n">
         <v>3.5625</v>
       </c>
-      <c r="G43" s="14" t="n">
+      <c r="G43" s="7" t="n">
         <v>8.67291666666667</v>
       </c>
-      <c r="H43" s="15" t="n">
+      <c r="H43" s="8" t="n">
         <v>0.756944444444444</v>
       </c>
-      <c r="I43" s="15" t="n">
+      <c r="I43" s="8" t="n">
         <v>0.817361111111111</v>
       </c>
     </row>
@@ -1666,31 +1673,31 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="13" t="n">
+      <c r="C45" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D45" s="14" t="n">
+      <c r="D45" s="7" t="n">
         <v>0.276388888888889</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="7" t="n">
         <v>0.357638888888889</v>
       </c>
-      <c r="F45" s="14" t="n">
+      <c r="F45" s="7" t="n">
         <v>5.5625</v>
       </c>
-      <c r="G45" s="14" t="n">
+      <c r="G45" s="7" t="n">
         <v>12.6756944444444</v>
       </c>
-      <c r="H45" s="15" t="n">
+      <c r="H45" s="8" t="n">
         <v>0.759722222222222</v>
       </c>
-      <c r="I45" s="15" t="n">
+      <c r="I45" s="8" t="n">
         <v>0.820138888888889</v>
       </c>
     </row>
@@ -1724,31 +1731,31 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="13" t="n">
+      <c r="C47" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D47" s="14" t="n">
+      <c r="D47" s="7" t="n">
         <v>0.274305555555556</v>
       </c>
-      <c r="E47" s="14" t="n">
+      <c r="E47" s="7" t="n">
         <v>0.354861111111111</v>
       </c>
-      <c r="F47" s="14" t="n">
+      <c r="F47" s="7" t="n">
         <v>7.5625</v>
       </c>
-      <c r="G47" s="14" t="n">
+      <c r="G47" s="7" t="n">
         <v>16.6784722222222</v>
       </c>
-      <c r="H47" s="15" t="n">
+      <c r="H47" s="8" t="n">
         <v>0.7625</v>
       </c>
-      <c r="I47" s="15" t="n">
+      <c r="I47" s="8" t="n">
         <v>0.822222222222222</v>
       </c>
     </row>
@@ -1782,31 +1789,31 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="13" t="n">
+      <c r="C49" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="D49" s="14" t="n">
+      <c r="D49" s="7" t="n">
         <v>0.272222222222222</v>
       </c>
-      <c r="E49" s="14" t="n">
+      <c r="E49" s="7" t="n">
         <v>0.352083333333333</v>
       </c>
-      <c r="F49" s="14" t="n">
+      <c r="F49" s="7" t="n">
         <v>9.5625</v>
       </c>
-      <c r="G49" s="14" t="n">
+      <c r="G49" s="7" t="n">
         <v>19.6805555555556</v>
       </c>
-      <c r="H49" s="15" t="n">
+      <c r="H49" s="8" t="n">
         <v>0.765277777777778</v>
       </c>
-      <c r="I49" s="15" t="n">
+      <c r="I49" s="8" t="n">
         <v>0.825</v>
       </c>
     </row>
@@ -1840,31 +1847,31 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="13" t="n">
+      <c r="C51" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="D51" s="14" t="n">
+      <c r="D51" s="7" t="n">
         <v>0.269444444444444</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="E51" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="F51" s="14" t="n">
+      <c r="F51" s="7" t="n">
         <v>11.5625</v>
       </c>
-      <c r="G51" s="14" t="n">
+      <c r="G51" s="7" t="n">
         <v>23.6833333333333</v>
       </c>
-      <c r="H51" s="15" t="n">
+      <c r="H51" s="8" t="n">
         <v>0.767361111111111</v>
       </c>
-      <c r="I51" s="15" t="n">
+      <c r="I51" s="8" t="n">
         <v>0.827083333333333</v>
       </c>
     </row>
@@ -1898,31 +1905,31 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="A53" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="13" t="n">
+      <c r="C53" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="D53" s="14" t="n">
+      <c r="D53" s="7" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="E53" s="14" t="n">
+      <c r="E53" s="7" t="n">
         <v>0.347222222222222</v>
       </c>
-      <c r="F53" s="14" t="n">
+      <c r="F53" s="7" t="n">
         <v>13.5625</v>
       </c>
-      <c r="G53" s="14" t="n">
+      <c r="G53" s="7" t="n">
         <v>26.6854166666667</v>
       </c>
-      <c r="H53" s="15" t="n">
+      <c r="H53" s="8" t="n">
         <v>0.770138888888889</v>
       </c>
-      <c r="I53" s="15" t="n">
+      <c r="I53" s="8" t="n">
         <v>0.829861111111111</v>
       </c>
     </row>
@@ -1956,31 +1963,31 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="13" t="n">
+      <c r="C55" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="D55" s="14" t="n">
+      <c r="D55" s="7" t="n">
         <v>0.264583333333333</v>
       </c>
-      <c r="E55" s="14" t="n">
+      <c r="E55" s="7" t="n">
         <v>0.34375</v>
       </c>
-      <c r="F55" s="14" t="n">
+      <c r="F55" s="7" t="n">
         <v>15.5625</v>
       </c>
-      <c r="G55" s="14" t="n">
+      <c r="G55" s="7" t="n">
         <v>30.6881944444444</v>
       </c>
-      <c r="H55" s="15" t="n">
+      <c r="H55" s="8" t="n">
         <v>0.772916666666667</v>
       </c>
-      <c r="I55" s="15" t="n">
+      <c r="I55" s="8" t="n">
         <v>0.831944444444445</v>
       </c>
     </row>
@@ -2014,31 +2021,31 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+      <c r="A57" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="13" t="n">
+      <c r="C57" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="D57" s="14" t="n">
+      <c r="D57" s="7" t="n">
         <v>0.261805555555556</v>
       </c>
-      <c r="E57" s="14" t="n">
+      <c r="E57" s="7" t="n">
         <v>0.340972222222222</v>
       </c>
-      <c r="F57" s="14" t="n">
+      <c r="F57" s="7" t="n">
         <v>17.5625</v>
       </c>
-      <c r="G57" s="14" t="n">
+      <c r="G57" s="7" t="n">
         <v>33.6902777777778</v>
       </c>
-      <c r="H57" s="15" t="n">
+      <c r="H57" s="8" t="n">
         <v>0.775694444444445</v>
       </c>
-      <c r="I57" s="15" t="n">
+      <c r="I57" s="8" t="n">
         <v>0.834722222222222</v>
       </c>
     </row>
@@ -2072,31 +2079,31 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
+      <c r="A59" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="13" t="n">
+      <c r="C59" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="D59" s="14" t="n">
+      <c r="D59" s="7" t="n">
         <v>0.259027777777778</v>
       </c>
-      <c r="E59" s="14" t="n">
+      <c r="E59" s="7" t="n">
         <v>0.338194444444444</v>
       </c>
-      <c r="F59" s="14" t="n">
+      <c r="F59" s="7" t="n">
         <v>19.5625</v>
       </c>
-      <c r="G59" s="14" t="n">
+      <c r="G59" s="7" t="n">
         <v>37.6930555555556</v>
       </c>
-      <c r="H59" s="15" t="n">
+      <c r="H59" s="8" t="n">
         <v>0.778472222222222</v>
       </c>
-      <c r="I59" s="15" t="n">
+      <c r="I59" s="8" t="n">
         <v>0.836805555555556</v>
       </c>
     </row>
@@ -2130,31 +2137,31 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
+      <c r="A61" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="13" t="n">
+      <c r="C61" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="D61" s="14" t="n">
+      <c r="D61" s="7" t="n">
         <v>0.255555555555556</v>
       </c>
-      <c r="E61" s="14" t="n">
+      <c r="E61" s="7" t="n">
         <v>0.335416666666667</v>
       </c>
-      <c r="F61" s="14" t="n">
+      <c r="F61" s="7" t="n">
         <v>21.5625</v>
       </c>
-      <c r="G61" s="14" t="n">
+      <c r="G61" s="7" t="n">
         <v>40.6951388888889</v>
       </c>
-      <c r="H61" s="15" t="n">
+      <c r="H61" s="8" t="n">
         <v>0.780555555555556</v>
       </c>
-      <c r="I61" s="15" t="n">
+      <c r="I61" s="8" t="n">
         <v>0.839583333333333</v>
       </c>
     </row>
@@ -2188,31 +2195,31 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
+      <c r="A63" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="13" t="n">
+      <c r="C63" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="D63" s="14" t="n">
+      <c r="D63" s="7" t="n">
         <v>0.252777777777778</v>
       </c>
-      <c r="E63" s="14" t="n">
+      <c r="E63" s="7" t="n">
         <v>0.331944444444444</v>
       </c>
-      <c r="F63" s="14" t="n">
+      <c r="F63" s="7" t="n">
         <v>23.5625</v>
       </c>
-      <c r="G63" s="14" t="n">
+      <c r="G63" s="7" t="n">
         <v>43.6972222222222</v>
       </c>
-      <c r="H63" s="15" t="n">
+      <c r="H63" s="8" t="n">
         <v>0.783333333333333</v>
       </c>
-      <c r="I63" s="15" t="n">
+      <c r="I63" s="8" t="n">
         <v>0.841666666666667</v>
       </c>
     </row>
@@ -2246,46 +2253,1244 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
+      <c r="A65" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="13" t="n">
+      <c r="C65" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="D65" s="14" t="n">
+      <c r="D65" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="E65" s="14" t="n">
+      <c r="E65" s="7" t="n">
         <v>0.329166666666667</v>
       </c>
-      <c r="F65" s="14" t="n">
+      <c r="F65" s="7" t="n">
         <v>25.5625</v>
       </c>
-      <c r="G65" s="14" t="n">
+      <c r="G65" s="7" t="n">
         <v>47.7</v>
       </c>
-      <c r="H65" s="15" t="n">
+      <c r="H65" s="8" t="n">
         <v>0.786111111111111</v>
       </c>
-      <c r="I65" s="15" t="n">
+      <c r="I65" s="8" t="n">
         <v>0.844444444444444</v>
       </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="14" t="n">
+        <v>0.248611111111111</v>
+      </c>
+      <c r="E69" s="14" t="n">
+        <v>0.327777777777778</v>
+      </c>
+      <c r="F69" s="14" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G69" s="14" t="n">
+        <v>0.700694444444444</v>
+      </c>
+      <c r="H69" s="15" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="I69" s="15" t="n">
+        <v>0.845833333333333</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="14" t="n">
+        <v>0.246527777777778</v>
+      </c>
+      <c r="E70" s="14" t="n">
+        <v>0.325694444444444</v>
+      </c>
+      <c r="F70" s="14" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="G70" s="14" t="n">
+        <v>2.70208333333333</v>
+      </c>
+      <c r="H70" s="15" t="n">
+        <v>2.78888888888889</v>
+      </c>
+      <c r="I70" s="15" t="n">
+        <v>2.84722222222222</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" s="14" t="n">
+        <v>0.245138888888889</v>
+      </c>
+      <c r="E71" s="14" t="n">
+        <v>0.324305555555556</v>
+      </c>
+      <c r="F71" s="14" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G71" s="14" t="n">
+        <v>4.70347222222222</v>
+      </c>
+      <c r="H71" s="15" t="n">
+        <v>3.78958333333333</v>
+      </c>
+      <c r="I71" s="15" t="n">
+        <v>3.84791666666667</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" s="14" t="n">
+        <v>0.24375</v>
+      </c>
+      <c r="E72" s="14" t="n">
+        <v>0.322916666666667</v>
+      </c>
+      <c r="F72" s="14" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="G72" s="14" t="n">
+        <v>5.70416666666667</v>
+      </c>
+      <c r="H72" s="15" t="n">
+        <v>5.79097222222222</v>
+      </c>
+      <c r="I72" s="15" t="n">
+        <v>5.84930555555556</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" s="14" t="n">
+        <v>0.241666666666667</v>
+      </c>
+      <c r="E73" s="14" t="n">
+        <v>0.321527777777778</v>
+      </c>
+      <c r="F73" s="14" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="G73" s="14" t="n">
+        <v>7.70555555555556</v>
+      </c>
+      <c r="H73" s="15" t="n">
+        <v>7.79236111111111</v>
+      </c>
+      <c r="I73" s="15" t="n">
+        <v>7.85069444444445</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D74" s="14" t="n">
+        <v>0.240277777777778</v>
+      </c>
+      <c r="E74" s="14" t="n">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="F74" s="14" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="G74" s="14" t="n">
+        <v>8.70625</v>
+      </c>
+      <c r="H74" s="15" t="n">
+        <v>9.79375</v>
+      </c>
+      <c r="I74" s="15" t="n">
+        <v>9.85208333333333</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" s="14" t="n">
+        <v>0.238888888888889</v>
+      </c>
+      <c r="E75" s="14" t="n">
+        <v>0.318055555555556</v>
+      </c>
+      <c r="F75" s="14" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="G75" s="14" t="n">
+        <v>10.7076388888889</v>
+      </c>
+      <c r="H75" s="15" t="n">
+        <v>11.7951388888889</v>
+      </c>
+      <c r="I75" s="15" t="n">
+        <v>11.8534722222222</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" s="14" t="n">
+        <v>0.236805555555556</v>
+      </c>
+      <c r="E76" s="14" t="n">
+        <v>0.316666666666667</v>
+      </c>
+      <c r="F76" s="14" t="n">
+        <v>5.5625</v>
+      </c>
+      <c r="G76" s="14" t="n">
+        <v>12.7090277777778</v>
+      </c>
+      <c r="H76" s="15" t="n">
+        <v>13.7965277777778</v>
+      </c>
+      <c r="I76" s="15" t="n">
+        <v>13.8548611111111</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D77" s="14" t="n">
+        <v>0.235416666666667</v>
+      </c>
+      <c r="E77" s="14" t="n">
+        <v>0.314583333333333</v>
+      </c>
+      <c r="F77" s="14" t="n">
+        <v>6.5625</v>
+      </c>
+      <c r="G77" s="14" t="n">
+        <v>13.7097222222222</v>
+      </c>
+      <c r="H77" s="15" t="n">
+        <v>14.7972222222222</v>
+      </c>
+      <c r="I77" s="15" t="n">
+        <v>15.85625</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" s="14" t="n">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="E78" s="14" t="n">
+        <v>0.313194444444444</v>
+      </c>
+      <c r="F78" s="14" t="n">
+        <v>7.5625</v>
+      </c>
+      <c r="G78" s="14" t="n">
+        <v>15.7111111111111</v>
+      </c>
+      <c r="H78" s="15" t="n">
+        <v>16.7986111111111</v>
+      </c>
+      <c r="I78" s="15" t="n">
+        <v>16.8569444444444</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D79" s="14" t="n">
+        <v>0.231944444444444</v>
+      </c>
+      <c r="E79" s="14" t="n">
+        <v>0.311805555555556</v>
+      </c>
+      <c r="F79" s="14" t="n">
+        <v>8.5625</v>
+      </c>
+      <c r="G79" s="14" t="n">
+        <v>16.7118055555556</v>
+      </c>
+      <c r="H79" s="15" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I79" s="15" t="n">
+        <v>18.8583333333333</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D80" s="14" t="n">
+        <v>0.229861111111111</v>
+      </c>
+      <c r="E80" s="14" t="n">
+        <v>0.309722222222222</v>
+      </c>
+      <c r="F80" s="14" t="n">
+        <v>9.5625</v>
+      </c>
+      <c r="G80" s="14" t="n">
+        <v>18.7131944444444</v>
+      </c>
+      <c r="H80" s="15" t="n">
+        <v>20.8013888888889</v>
+      </c>
+      <c r="I80" s="15" t="n">
+        <v>20.8597222222222</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D81" s="14" t="n">
+        <v>0.228472222222222</v>
+      </c>
+      <c r="E81" s="14" t="n">
+        <v>0.308333333333333</v>
+      </c>
+      <c r="F81" s="14" t="n">
+        <v>10.5625</v>
+      </c>
+      <c r="G81" s="14" t="n">
+        <v>19.7138888888889</v>
+      </c>
+      <c r="H81" s="15" t="n">
+        <v>22.8027777777778</v>
+      </c>
+      <c r="I81" s="15" t="n">
+        <v>22.8611111111111</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D82" s="14" t="n">
+        <v>0.226388888888889</v>
+      </c>
+      <c r="E82" s="14" t="n">
+        <v>0.306944444444444</v>
+      </c>
+      <c r="F82" s="14" t="n">
+        <v>11.5625</v>
+      </c>
+      <c r="G82" s="14" t="n">
+        <v>21.7152777777778</v>
+      </c>
+      <c r="H82" s="15" t="n">
+        <v>23.8034722222222</v>
+      </c>
+      <c r="I82" s="15" t="n">
+        <v>24.8625</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D83" s="14" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E83" s="14" t="n">
+        <v>0.304861111111111</v>
+      </c>
+      <c r="F83" s="14" t="n">
+        <v>12.5625</v>
+      </c>
+      <c r="G83" s="14" t="n">
+        <v>22.7159722222222</v>
+      </c>
+      <c r="H83" s="15" t="n">
+        <v>25.8048611111111</v>
+      </c>
+      <c r="I83" s="15" t="n">
+        <v>26.8638888888889</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D84" s="14" t="n">
+        <v>0.222916666666667</v>
+      </c>
+      <c r="E84" s="14" t="n">
+        <v>0.303472222222222</v>
+      </c>
+      <c r="F84" s="14" t="n">
+        <v>13.5625</v>
+      </c>
+      <c r="G84" s="14" t="n">
+        <v>24.7173611111111</v>
+      </c>
+      <c r="H84" s="15" t="n">
+        <v>27.80625</v>
+      </c>
+      <c r="I84" s="15" t="n">
+        <v>28.8652777777778</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D85" s="14" t="n">
+        <v>0.220833333333333</v>
+      </c>
+      <c r="E85" s="14" t="n">
+        <v>0.302083333333333</v>
+      </c>
+      <c r="F85" s="14" t="n">
+        <v>14.5625</v>
+      </c>
+      <c r="G85" s="14" t="n">
+        <v>25.7180555555556</v>
+      </c>
+      <c r="H85" s="15" t="n">
+        <v>29.8076388888889</v>
+      </c>
+      <c r="I85" s="15" t="n">
+        <v>30.8666666666667</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="n">
+        <v>0.219444444444444</v>
+      </c>
+      <c r="E86" s="14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F86" s="14" t="n">
+        <v>15.5625</v>
+      </c>
+      <c r="G86" s="14" t="n">
+        <v>26.71875</v>
+      </c>
+      <c r="H86" s="15" t="n">
+        <v>31.8090277777778</v>
+      </c>
+      <c r="I86" s="15" t="n">
+        <v>32.8680555555556</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D87" s="14" t="n">
+        <v>0.217361111111111</v>
+      </c>
+      <c r="E87" s="14" t="n">
+        <v>0.298611111111111</v>
+      </c>
+      <c r="F87" s="14" t="n">
+        <v>16.5625</v>
+      </c>
+      <c r="G87" s="14" t="n">
+        <v>28.7201388888889</v>
+      </c>
+      <c r="H87" s="15" t="n">
+        <v>32.8097222222222</v>
+      </c>
+      <c r="I87" s="15" t="n">
+        <v>34.8694444444444</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D88" s="14" t="n">
+        <v>0.215277777777778</v>
+      </c>
+      <c r="E88" s="14" t="n">
+        <v>0.296527777777778</v>
+      </c>
+      <c r="F88" s="14" t="n">
+        <v>17.5625</v>
+      </c>
+      <c r="G88" s="14" t="n">
+        <v>29.7208333333333</v>
+      </c>
+      <c r="H88" s="15" t="n">
+        <v>34.8111111111111</v>
+      </c>
+      <c r="I88" s="15" t="n">
+        <v>36.8708333333333</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="D89" s="14" t="n">
+        <v>0.213888888888889</v>
+      </c>
+      <c r="E89" s="14" t="n">
+        <v>0.295138888888889</v>
+      </c>
+      <c r="F89" s="14" t="n">
+        <v>18.5625</v>
+      </c>
+      <c r="G89" s="14" t="n">
+        <v>31.7222222222222</v>
+      </c>
+      <c r="H89" s="15" t="n">
+        <v>36.8125</v>
+      </c>
+      <c r="I89" s="15" t="n">
+        <v>38.8722222222222</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D90" s="14" t="n">
+        <v>0.211805555555556</v>
+      </c>
+      <c r="E90" s="14" t="n">
+        <v>0.29375</v>
+      </c>
+      <c r="F90" s="14" t="n">
+        <v>19.5625</v>
+      </c>
+      <c r="G90" s="14" t="n">
+        <v>32.7229166666667</v>
+      </c>
+      <c r="H90" s="15" t="n">
+        <v>38.8138888888889</v>
+      </c>
+      <c r="I90" s="15" t="n">
+        <v>40.8736111111111</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D91" s="14" t="n">
+        <v>0.209722222222222</v>
+      </c>
+      <c r="E91" s="14" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="F91" s="14" t="n">
+        <v>20.5625</v>
+      </c>
+      <c r="G91" s="14" t="n">
+        <v>34.7243055555556</v>
+      </c>
+      <c r="H91" s="15" t="n">
+        <v>39.8145833333333</v>
+      </c>
+      <c r="I91" s="15" t="n">
+        <v>42.875</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="D92" s="14" t="n">
+        <v>0.207638888888889</v>
+      </c>
+      <c r="E92" s="14" t="n">
+        <v>0.290277777777778</v>
+      </c>
+      <c r="F92" s="14" t="n">
+        <v>21.5625</v>
+      </c>
+      <c r="G92" s="14" t="n">
+        <v>35.725</v>
+      </c>
+      <c r="H92" s="15" t="n">
+        <v>41.8159722222222</v>
+      </c>
+      <c r="I92" s="15" t="n">
+        <v>44.8763888888889</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D93" s="14" t="n">
+        <v>0.20625</v>
+      </c>
+      <c r="E93" s="14" t="n">
+        <v>0.288888888888889</v>
+      </c>
+      <c r="F93" s="14" t="n">
+        <v>22.5625</v>
+      </c>
+      <c r="G93" s="14" t="n">
+        <v>36.7256944444444</v>
+      </c>
+      <c r="H93" s="15" t="n">
+        <v>43.8173611111111</v>
+      </c>
+      <c r="I93" s="15" t="n">
+        <v>46.8777777777778</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="D94" s="14" t="n">
+        <v>0.204166666666667</v>
+      </c>
+      <c r="E94" s="14" t="n">
+        <v>0.286805555555556</v>
+      </c>
+      <c r="F94" s="14" t="n">
+        <v>23.5625</v>
+      </c>
+      <c r="G94" s="14" t="n">
+        <v>38.7270833333333</v>
+      </c>
+      <c r="H94" s="15" t="n">
+        <v>45.81875</v>
+      </c>
+      <c r="I94" s="15" t="n">
+        <v>48.8791666666667</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D95" s="14" t="n">
+        <v>0.202083333333333</v>
+      </c>
+      <c r="E95" s="14" t="n">
+        <v>0.285416666666667</v>
+      </c>
+      <c r="F95" s="14" t="n">
+        <v>24.5625</v>
+      </c>
+      <c r="G95" s="14" t="n">
+        <v>39.7277777777778</v>
+      </c>
+      <c r="H95" s="15" t="n">
+        <v>47.8201388888889</v>
+      </c>
+      <c r="I95" s="15" t="n">
+        <v>50.8805555555556</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="D96" s="14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E96" s="14" t="n">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="F96" s="14" t="n">
+        <v>25.5625</v>
+      </c>
+      <c r="G96" s="14" t="n">
+        <v>40.7284722222222</v>
+      </c>
+      <c r="H96" s="15" t="n">
+        <v>48.8208333333333</v>
+      </c>
+      <c r="I96" s="15" t="n">
+        <v>52.8819444444444</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="D97" s="14" t="n">
+        <v>0.197916666666667</v>
+      </c>
+      <c r="E97" s="14" t="n">
+        <v>0.281944444444444</v>
+      </c>
+      <c r="F97" s="14" t="n">
+        <v>26.5625</v>
+      </c>
+      <c r="G97" s="14" t="n">
+        <v>42.7298611111111</v>
+      </c>
+      <c r="H97" s="15" t="n">
+        <v>50.8222222222222</v>
+      </c>
+      <c r="I97" s="15" t="n">
+        <v>54.8833333333333</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" s="14" t="n">
+        <v>0.195833333333333</v>
+      </c>
+      <c r="E98" s="14" t="n">
+        <v>0.280555555555556</v>
+      </c>
+      <c r="F98" s="14" t="n">
+        <v>27.5625</v>
+      </c>
+      <c r="G98" s="14" t="n">
+        <v>43.7305555555556</v>
+      </c>
+      <c r="H98" s="15" t="n">
+        <v>52.8236111111111</v>
+      </c>
+      <c r="I98" s="15" t="n">
+        <v>57.8854166666667</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" s="14" t="n">
+        <v>0.19375</v>
+      </c>
+      <c r="E99" s="14" t="n">
+        <v>0.278472222222222</v>
+      </c>
+      <c r="F99" s="14" t="n">
+        <v>28.5625</v>
+      </c>
+      <c r="G99" s="14" t="n">
+        <v>44.73125</v>
+      </c>
+      <c r="H99" s="15" t="n">
+        <v>54.825</v>
+      </c>
+      <c r="I99" s="15" t="n">
+        <v>59.8868055555556</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="G100" s="0"/>
+      <c r="H100" s="0"/>
+      <c r="I100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="G101" s="0"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
+      <c r="G102" s="0"/>
+      <c r="H102" s="0"/>
+      <c r="I102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
+      <c r="G104" s="0"/>
+      <c r="H104" s="0"/>
+      <c r="I104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+      <c r="I105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="0"/>
+      <c r="E107" s="0"/>
+      <c r="G107" s="0"/>
+      <c r="H107" s="0"/>
+      <c r="I107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
+      <c r="G108" s="0"/>
+      <c r="H108" s="0"/>
+      <c r="I108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="0"/>
+      <c r="E109" s="0"/>
+      <c r="G109" s="0"/>
+      <c r="H109" s="0"/>
+      <c r="I109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="G110" s="0"/>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="0"/>
+      <c r="E111" s="0"/>
+      <c r="G111" s="0"/>
+      <c r="H111" s="0"/>
+      <c r="I111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="0"/>
+      <c r="E112" s="0"/>
+      <c r="G112" s="0"/>
+      <c r="H112" s="0"/>
+      <c r="I112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="H114" s="0"/>
+      <c r="I114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="H115" s="0"/>
+      <c r="I115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="H116" s="0"/>
+      <c r="I116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="H117" s="0"/>
+      <c r="I117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="H118" s="0"/>
+      <c r="I118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
+      <c r="H119" s="0"/>
+      <c r="I119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
+      <c r="H120" s="0"/>
+      <c r="I120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="0"/>
+      <c r="E121" s="0"/>
+      <c r="H121" s="0"/>
+      <c r="I121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="H122" s="0"/>
+      <c r="I122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="I123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="I125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="0"/>
+      <c r="E126" s="0"/>
+      <c r="I126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+      <c r="I127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="0"/>
+      <c r="E128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="0"/>
+      <c r="E129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
+      <c r="I130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="0"/>
+      <c r="E131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="0"/>
+      <c r="E132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="0"/>
+      <c r="E133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D134" s="0"/>
+      <c r="E134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="0"/>
+      <c r="E135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137" s="0"/>
+      <c r="E137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141" s="0"/>
+      <c r="E141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="16"/>
+    </row>
+    <row r="148" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="0"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="E33:I33"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:I68"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
